--- a/documents/Published/Quadrant Chart/QuadrantChartByMAQSoftwareChecklist.xlsx
+++ b/documents/Published/Quadrant Chart/QuadrantChartByMAQSoftwareChecklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CustomVisuals\documents\Published\Quadrant Chart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitLab_PowerBIVisuals\documents\Published\Quadrant Chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F36A8E-609C-4C18-B497-E80BB73AED41}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A24D8A-3CFF-4C44-AE2D-872EB69C3164}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24360" windowHeight="9240" xr2:uid="{E6ADFF9B-929E-442F-838C-1C0C2035D4F3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="86">
   <si>
     <t>S no</t>
   </si>
@@ -219,9 +219,6 @@
     <t>5. Update 'decimal places' to '1.1'</t>
   </si>
   <si>
-    <t>4. Update 'decimal places' to '1.2'</t>
-  </si>
-  <si>
     <t>4. Resize the Viewport such both 'Vertical' and 'Horizontal' scroll bar should display.</t>
   </si>
   <si>
@@ -236,11 +233,6 @@
   <si>
     <t>Quadrant Chart should be displayed,
 along with target legend and circles for individual manufacturers</t>
-  </si>
-  <si>
-    <t>1. Text will be formatted like '50K'
-2. Text will be formatted like '50.0K'
-3. Value will be reverted back to '1'</t>
   </si>
   <si>
     <t>1. Legend's position will be changed to 'bottom'
@@ -275,6 +267,40 @@
     <t>1. Bookmarks Pane will be visible on the right side
 2. A new bookmark entry will be added in the pane
 3. Previously saved state will be rendered in the visual with saved selections and filtering</t>
+  </si>
+  <si>
+    <t>6. Update 'Start' to '10000000'</t>
+  </si>
+  <si>
+    <t>7. Update 'End' to '3800000000'</t>
+  </si>
+  <si>
+    <t>8. Update 'Interval' to '8'</t>
+  </si>
+  <si>
+    <t>5. Update 'decimal places' to '1.2'</t>
+  </si>
+  <si>
+    <t>6. Update 'Start' to '1000'</t>
+  </si>
+  <si>
+    <t>7. Update 'End' to '410000'</t>
+  </si>
+  <si>
+    <t>1. Text will be formatted like '50K'
+2. Text will be formatted like '50.0K'
+3. Value will be reverted back to '1'
+4. Start Point will be set to '10000000'
+5. End point will be set to '3800000000'
+6. Intervals will be set to '8'</t>
+  </si>
+  <si>
+    <t>1. Text will be formatted like '50K'
+2. Text will be formatted like '50.0K'
+3. Value will be reverted back to '1'
+4. Start Point will be set to '1000'
+5. End point will be set to '410000'
+6. Intervals will be set to '8'</t>
   </si>
 </sst>
 </file>
@@ -333,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -359,37 +385,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -706,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3542ACED-FC5A-41CE-B411-3B15EAE34D58}">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:A60"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,1051 +755,1138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="21" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="17">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>65</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>66</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="9" t="s">
+      <c r="E4" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="15" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+        <v>66</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="10" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="9" t="s">
+      <c r="F7" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="15" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="10"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="10"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="17">
         <v>2</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="9" t="s">
+      <c r="F10" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="15" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="10" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="9" t="s">
+      <c r="F13" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="15" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="10"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="10"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="10" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16" s="9" t="s">
+      <c r="F16" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="15" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="10"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="10"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="A19" s="17">
         <v>3</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="17" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" s="9" t="s">
+      <c r="F19" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="15" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="10" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="17" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I23" s="9" t="s">
+      <c r="F23" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="15" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="10"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="10"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="10" t="s">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="17" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I26" s="9" t="s">
+      <c r="E26" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" s="15" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="10"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="10"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="10"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="2" t="s">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="18"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="18"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="18"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="17">
         <v>4</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B34" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C34" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E34" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="2" t="s">
+      <c r="F34" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="2" t="s">
+      <c r="E35" s="19"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="2" t="s">
+      <c r="E36" s="19"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="10" t="s">
+      <c r="E37" s="19"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="17" t="s">
         <v>32</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I38" s="9" t="s">
+      <c r="E38" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I38" s="15" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="10"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="17"/>
       <c r="D39" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E39" s="15"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="10"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="17"/>
       <c r="D40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="19"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="18"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="15"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="7" t="s">
+      <c r="E43" s="18"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E41" s="15"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E42" s="15"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="10">
+      <c r="E44" s="18"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" s="18"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" s="18"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" s="18"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E48" s="18"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="17">
         <v>5</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B49" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C49" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="2" t="s">
+      <c r="E49" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="2" t="s">
+      <c r="E50" s="18"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E45" s="15"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="2" t="s">
+      <c r="E51" s="18"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E46" s="15"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="2" t="s">
+      <c r="E52" s="18"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E47" s="15"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="10">
+      <c r="E53" s="18"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="17">
         <v>6</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B54" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C54" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D54" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="15" t="s">
+      <c r="E54" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F48" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E49" s="15"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-    </row>
-    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E50" s="15"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-    </row>
-    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E51" s="15"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E53" s="15"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-    </row>
-    <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E54" s="15"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-    </row>
-    <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
+      <c r="F54" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H54" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I54" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
       <c r="C55" s="16"/>
       <c r="D55" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E55" s="15"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="14">
+        <v>36</v>
+      </c>
+      <c r="E55" s="18"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+    </row>
+    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56" s="18"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+    </row>
+    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E57" s="18"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H58" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I58" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" s="18"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+    </row>
+    <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="17"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E60" s="18"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+    </row>
+    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="17"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E61" s="18"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="13">
         <v>7</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B62" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G62" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="H62" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I62" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="13"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E63" s="12"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="14"/>
+    </row>
+    <row r="64" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="13"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="E64" s="12"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="14"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="13"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E56" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="F56" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H56" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="I56" s="19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="3" t="s">
+      <c r="E65" s="12"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="14"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="13"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E57" s="18"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="19"/>
-    </row>
-    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E58" s="18"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="19"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E59" s="18"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="19"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E60" s="18"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="19"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="128">
-    <mergeCell ref="E56:E60"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="F56:F60"/>
-    <mergeCell ref="G56:G60"/>
-    <mergeCell ref="H56:H60"/>
-    <mergeCell ref="I56:I60"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="F38:F42"/>
-    <mergeCell ref="G38:G42"/>
-    <mergeCell ref="H38:H42"/>
-    <mergeCell ref="I38:I42"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="B48:B55"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="E52:E55"/>
-    <mergeCell ref="F43:F47"/>
-    <mergeCell ref="G43:G47"/>
-    <mergeCell ref="H43:H47"/>
-    <mergeCell ref="I43:I47"/>
-    <mergeCell ref="F48:F51"/>
-    <mergeCell ref="G48:G51"/>
-    <mergeCell ref="H48:H51"/>
-    <mergeCell ref="I48:I51"/>
-    <mergeCell ref="F52:F55"/>
-    <mergeCell ref="G52:G55"/>
-    <mergeCell ref="H52:H55"/>
-    <mergeCell ref="I52:I55"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="F26:F33"/>
+    <mergeCell ref="G26:G33"/>
+    <mergeCell ref="H26:H33"/>
+    <mergeCell ref="I26:I33"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="E41:E48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="A54:A61"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="A1:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:C6"/>
@@ -1788,72 +1907,63 @@
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="E16:E18"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="A48:A55"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="H31:H34"/>
-    <mergeCell ref="I31:I34"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="F26:F30"/>
-    <mergeCell ref="G26:G30"/>
-    <mergeCell ref="H26:H30"/>
-    <mergeCell ref="I26:I30"/>
+    <mergeCell ref="E49:E53"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="B41:B48"/>
+    <mergeCell ref="C41:C48"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="E26:E33"/>
+    <mergeCell ref="I49:I53"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="I54:I57"/>
+    <mergeCell ref="F58:F61"/>
+    <mergeCell ref="G58:G61"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="I58:I61"/>
+    <mergeCell ref="E62:E66"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="C62:C66"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="F62:F66"/>
+    <mergeCell ref="G62:G66"/>
+    <mergeCell ref="H62:H66"/>
+    <mergeCell ref="I62:I66"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="F41:F48"/>
+    <mergeCell ref="G41:G48"/>
+    <mergeCell ref="H41:H48"/>
+    <mergeCell ref="I41:I48"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="B54:B61"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="F49:F53"/>
+    <mergeCell ref="G49:G53"/>
+    <mergeCell ref="H49:H53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
